--- a/uWaterloo work/SYDE 161/161 2022-11-29 test_data.xlsx
+++ b/uWaterloo work/SYDE 161/161 2022-11-29 test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linyu\project_tracker\uWaterloo work\SYDE 161\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B22FE8B5-CFB5-438F-BF32-2A067D7F55AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AC8BF-116D-4386-860F-AE089BF89DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{F30664B4-1541-424A-B027-BC728385CEAA}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="19200" windowHeight="10200" xr2:uid="{F30664B4-1541-424A-B027-BC728385CEAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>the router</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>behind</t>
+  </si>
+  <si>
+    <t>NEW COMPUTER</t>
+  </si>
+  <si>
+    <t>ROUND REFLECTOR</t>
+  </si>
+  <si>
+    <t>FORWARD ONLY</t>
+  </si>
+  <si>
+    <t>AND BACKWARD</t>
+  </si>
+  <si>
+    <t>BIDIRECTIONAL REFLECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -414,15 +432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E216A36D-ECE9-401D-9F33-5068E60B8263}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,7 +471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -470,7 +491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -490,7 +511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -498,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -518,7 +539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -536,6 +557,281 @@
       </c>
       <c r="F9">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>-27</v>
+      </c>
+      <c r="C13">
+        <v>-23</v>
+      </c>
+      <c r="D13">
+        <v>-27</v>
+      </c>
+      <c r="E13">
+        <v>-25</v>
+      </c>
+      <c r="F13">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>-30</v>
+      </c>
+      <c r="C14">
+        <v>-31</v>
+      </c>
+      <c r="D14">
+        <v>-26</v>
+      </c>
+      <c r="E14">
+        <v>-23</v>
+      </c>
+      <c r="F14">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>-42</v>
+      </c>
+      <c r="C15">
+        <v>-43</v>
+      </c>
+      <c r="D15">
+        <v>-38</v>
+      </c>
+      <c r="E15">
+        <v>-36</v>
+      </c>
+      <c r="F15">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>-22</v>
+      </c>
+      <c r="C19">
+        <v>-25</v>
+      </c>
+      <c r="D19">
+        <v>-27</v>
+      </c>
+      <c r="E19">
+        <v>-27</v>
+      </c>
+      <c r="F19">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>-31</v>
+      </c>
+      <c r="C20">
+        <v>-37</v>
+      </c>
+      <c r="D20">
+        <v>-38</v>
+      </c>
+      <c r="E20">
+        <v>-35</v>
+      </c>
+      <c r="F20">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>-42</v>
+      </c>
+      <c r="C21">
+        <v>-48</v>
+      </c>
+      <c r="D21">
+        <v>-45</v>
+      </c>
+      <c r="E21">
+        <v>-43</v>
+      </c>
+      <c r="F21">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>-22</v>
+      </c>
+      <c r="C25">
+        <v>-25</v>
+      </c>
+      <c r="D25">
+        <v>-27</v>
+      </c>
+      <c r="E25">
+        <v>-27</v>
+      </c>
+      <c r="F25">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>-29</v>
+      </c>
+      <c r="C26">
+        <v>-23</v>
+      </c>
+      <c r="D26">
+        <v>-27</v>
+      </c>
+      <c r="E26">
+        <v>-24</v>
+      </c>
+      <c r="F26">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>-42</v>
+      </c>
+      <c r="C27">
+        <v>-48</v>
+      </c>
+      <c r="D27">
+        <v>-45</v>
+      </c>
+      <c r="E27">
+        <v>-43</v>
+      </c>
+      <c r="F27">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>-33</v>
+      </c>
+      <c r="C31">
+        <v>-36</v>
+      </c>
+      <c r="D31">
+        <v>-39</v>
+      </c>
+      <c r="E31">
+        <v>-37</v>
+      </c>
+      <c r="F31">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>-27</v>
+      </c>
+      <c r="C32">
+        <v>-28</v>
+      </c>
+      <c r="D32">
+        <v>-26</v>
+      </c>
+      <c r="E32">
+        <v>-31</v>
+      </c>
+      <c r="F32">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>-44</v>
+      </c>
+      <c r="C33">
+        <v>-43</v>
+      </c>
+      <c r="D33">
+        <v>-42</v>
+      </c>
+      <c r="E33">
+        <v>-50</v>
+      </c>
+      <c r="F33">
+        <v>-45</v>
       </c>
     </row>
   </sheetData>
